--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352529.007848737</v>
+        <v>1350133.351843555</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>42.76734719401195</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>391.313347266774</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>43.85787958302943</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>238.170838389039</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>351.3089589856968</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>327.0554053167724</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>111.2162935570099</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>163.6164644149219</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>138.1303545271504</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>195.8612084184797</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>181.0919561226081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>150.2520590638905</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>245.879692121443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>59.66990246485181</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>39.39795577638999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611470728</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>140.9357387834181</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20.92847288552895</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C28" t="n">
-        <v>46.86766651429496</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833691</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>73.98898794535489</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189018</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
-        <v>60.64713141731115</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>86.60069024005126</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2377.974895202417</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="C2" t="n">
-        <v>2009.012378262005</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>1650.746679655254</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>1264.95842705701</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>853.9725222674026</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272269</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870229</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974708</v>
+        <v>597.0574731482477</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156621</v>
+        <v>834.6802543664397</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673264</v>
+        <v>1130.750820924043</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908849</v>
+        <v>1436.225927159628</v>
       </c>
       <c r="O2" t="n">
-        <v>1722.883367225483</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2241.768415604353</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.207717676713</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2377.974895202417</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.974895202417</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.974895202417</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2377.974895202417</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995046</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626819</v>
+        <v>402.5242931591431</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165937</v>
+        <v>979.2471082623987</v>
       </c>
       <c r="M3" t="n">
-        <v>1512.968691787247</v>
+        <v>1620.270317882293</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220579</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,10 +4440,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635.6935740023988</v>
+        <v>389.0578106576028</v>
       </c>
       <c r="C4" t="n">
-        <v>635.6935740023988</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="D4" t="n">
-        <v>635.6935740023988</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="E4" t="n">
-        <v>487.7804804200057</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702565</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1149.241360234859</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>924.8302010102968</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>635.6935740023988</v>
+        <v>643.7422988634896</v>
       </c>
       <c r="V4" t="n">
-        <v>635.6935740023988</v>
+        <v>389.0578106576028</v>
       </c>
       <c r="W4" t="n">
-        <v>635.6935740023988</v>
+        <v>389.0578106576028</v>
       </c>
       <c r="X4" t="n">
-        <v>635.6935740023988</v>
+        <v>389.0578106576028</v>
       </c>
       <c r="Y4" t="n">
-        <v>635.6935740023988</v>
+        <v>389.0578106576028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1906.161223527301</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="C5" t="n">
-        <v>1537.198706586889</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>1178.933007980139</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>793.1447553818944</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F5" t="n">
-        <v>382.1588505922868</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
         <v>51.79985532281972</v>
@@ -4565,13 +4565,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4580,7 +4580,7 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="X5" t="n">
-        <v>1906.161223527301</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="Y5" t="n">
-        <v>1906.161223527301</v>
+        <v>1573.338683405873</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4647,22 +4647,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1365.112030949042</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1755.521592274785</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2090.450272990316</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2339.927000855334</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.9715979431027</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="C7" t="n">
-        <v>777.0354150151958</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="D7" t="n">
-        <v>626.91877560286</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>479.0056820204669</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>332.1157345225565</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>164.1395457844459</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1481.71451417921</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1481.71451417921</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.412641916872</v>
+        <v>1192.596737189608</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.412641916872</v>
+        <v>937.9122489837209</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.412641916872</v>
+        <v>648.4950789467603</v>
       </c>
       <c r="X7" t="n">
-        <v>1348.412641916872</v>
+        <v>420.5055280487429</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.620062773342</v>
+        <v>199.7129489052128</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1439.787835839972</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="C8" t="n">
-        <v>1070.825318899561</v>
+        <v>1303.565593677823</v>
       </c>
       <c r="D8" t="n">
-        <v>712.5596202928102</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="E8" t="n">
-        <v>326.771367694566</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4805,19 +4805,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.527007879906</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1826.387675904094</v>
+        <v>1672.528110618234</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>1464.062502353264</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>353.6862513653479</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>201.9164947351555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,34 +5057,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5361,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5507,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5604,16 +5604,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6005,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
         <v>240.7066105458822</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6239,10 +6239,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311994</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032925</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909568</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>482.6390612909568</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>335.7491137930464</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>168.5530145079263</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614391</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.695539989114</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783227</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7181,25 +7181,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>143.390998662501</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>62.34113178187249</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>206.0462815544579</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>214.0881678038615</v>
+        <v>380.8926041660668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>81.01167478453488</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>245.4670104377199</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-8.806849290892708e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-9.375283479500788e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>6.257951202384959</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>212.739687547438</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5956654067416</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>84.77391660561906</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>125.5054897610402</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>120.3791545843329</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459433</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>66.30572490086897</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823148</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F40" t="n">
-        <v>84.77391660562009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>80.64613085857657</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977847.7089312364</v>
+        <v>977847.7089312363</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286179</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286179</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185695</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="E2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26341,19 +26341,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.83881516</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695009</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695042</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695031</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695034</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695042</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695027</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696188.787668979</v>
+        <v>-696188.7876689798</v>
       </c>
       <c r="C6" t="n">
-        <v>97312.85804191907</v>
+        <v>97312.85804191994</v>
       </c>
       <c r="D6" t="n">
-        <v>270077.2178318125</v>
+        <v>270077.2178318124</v>
       </c>
       <c r="E6" t="n">
-        <v>-124010.9182873491</v>
+        <v>-124045.6562127853</v>
       </c>
       <c r="F6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="G6" t="n">
-        <v>376877.9494584013</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="H6" t="n">
-        <v>376877.9494584015</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="I6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="J6" t="n">
-        <v>207463.9326323535</v>
+        <v>207429.1947069178</v>
       </c>
       <c r="K6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="L6" t="n">
-        <v>376877.9494584015</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="M6" t="n">
-        <v>245993.4925541661</v>
+        <v>245958.7546287305</v>
       </c>
       <c r="N6" t="n">
-        <v>376877.9494584015</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="O6" t="n">
-        <v>376877.9494584014</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="P6" t="n">
-        <v>376877.9494584013</v>
+        <v>376843.2115329658</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26796,10 +26796,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>322.5055445769956</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>20.97439142827017</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>156.589644788272</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>48.07442234877999</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>13.9639327853107</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>84.46961806509694</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>35.94476665443707</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>30.8687049191692</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>216.5526870935326</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>211.0148373232317</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>71.04568720121986</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>68.33259428820432</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,22 +32546,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,25 +32783,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -33020,25 +33020,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33257,22 +33257,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535871</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,13 +34217,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.8483515800032</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873211</v>
+        <v>306.820303778658</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938087</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>36.14651360027497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932399</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>328.695869706255</v>
       </c>
       <c r="L3" t="n">
-        <v>582.548298084096</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>480.6937551730404</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.217122981271</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689365</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686939</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949296</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>199.0413610142971</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>615.4729594198668</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
@@ -35270,7 +35270,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35899,7 +35899,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36373,13 +36373,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36607,13 +36607,13 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790109</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>45.87687150790109</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394655</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
